--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.10700000000001</v>
+        <v>-21.14760000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.148800000000008</v>
+        <v>-8.097100000000008</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.549899999999997</v>
+        <v>-8.861899999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.5971</v>
+        <v>-21.66130000000001</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.48510000000001</v>
+        <v>-21.45790000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.456799999999998</v>
+        <v>-8.255799999999995</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.31049999999999</v>
+        <v>-20.06749999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.153300000000002</v>
+        <v>-8.010200000000005</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.16330000000002</v>
+        <v>-22.06270000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.035999999999996</v>
+        <v>-7.832700000000002</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
